--- a/VRPHons/results/baseline - TODO/Baseline - Results.xlsx
+++ b/VRPHons/results/baseline - TODO/Baseline - Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="38">
   <si>
     <t>Problem</t>
   </si>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,6 +6729,30 @@
       <c r="B202">
         <v>14</v>
       </c>
+      <c r="C202">
+        <v>110</v>
+      </c>
+      <c r="D202">
+        <v>3303.2039246143399</v>
+      </c>
+      <c r="E202">
+        <v>542.875841681</v>
+      </c>
+      <c r="F202">
+        <v>10101.742657249901</v>
+      </c>
+      <c r="G202">
+        <v>1630.451341596</v>
+      </c>
+      <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202" t="s">
+        <v>35</v>
+      </c>
+      <c r="J202" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
